--- a/projects/project2/WorkingNotes.xlsx
+++ b/projects/project2/WorkingNotes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>N</t>
   </si>
@@ -47,22 +47,28 @@
     <t>correlation</t>
   </si>
   <si>
-    <t>-2.943+0.042x</t>
-  </si>
-  <si>
-    <t>-0.01072 + 0.00047x'</t>
-  </si>
-  <si>
     <t>slow fn</t>
   </si>
   <si>
     <t>fast fn</t>
   </si>
   <si>
-    <t>41,977.1 s</t>
+    <t>−1.533 + 0.003⋅x</t>
   </si>
   <si>
-    <t>469.989s</t>
+    <t>2998.47s</t>
+  </si>
+  <si>
+    <t>−85.939 + 0.625⋅x</t>
+  </si>
+  <si>
+    <t>624914 s</t>
+  </si>
+  <si>
+    <t>N^2 values</t>
+  </si>
+  <si>
+    <t>N^4 values</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,585 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fast</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v Sample Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35793744531933508"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fast</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.5625000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.037999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F29-4D24-BB0C-D5D25517354D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="359082799"/>
+        <c:axId val="359091951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="359082799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359091951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359091951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359082799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1329,6 +1913,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1356,6 +2443,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1661,19 +2778,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,8 +2802,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -1706,7 +2831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1726,7 +2851,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1746,7 +2871,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -1766,7 +2891,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -1786,7 +2911,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1806,7 +2931,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>150</v>
       </c>
@@ -1826,7 +2951,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>200</v>
       </c>
@@ -1846,7 +2971,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>250</v>
       </c>
@@ -1866,7 +2991,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>300</v>
       </c>
@@ -1886,7 +3011,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>350</v>
       </c>
@@ -1906,7 +3031,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>400</v>
       </c>
@@ -1926,7 +3051,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1000</v>
       </c>
@@ -1946,7 +3071,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>1.8540000000000001</v>
+      </c>
       <c r="M15">
         <v>12</v>
       </c>
@@ -1957,9 +3088,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>6</v>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C16">
+        <v>2.5680000000000001</v>
       </c>
       <c r="M16">
         <v>13</v>
@@ -1971,68 +3105,83 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C17">
+        <v>4.6150000000000002</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>2E-3</v>
+      </c>
+      <c r="O17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>2E-3</v>
+      </c>
+      <c r="O18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C19">
+        <v>11.9</v>
+      </c>
+      <c r="H19">
         <f>CORREL(A2:A14,B2:B14)</f>
         <v>0.88697887476100445</v>
       </c>
-      <c r="C17">
+      <c r="I19">
         <f>CORREL(A2:A14,C2:C14)</f>
         <v>0.97941184621797717</v>
       </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
         <v>2E-3</v>
       </c>
-      <c r="O17">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="O19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C20">
+        <v>20.71</v>
+      </c>
+      <c r="H20">
         <f>_xlfn.FORECAST.LINEAR(1000000,B2:B14,A2:A14)</f>
         <v>624767.04559585638</v>
       </c>
-      <c r="C18">
+      <c r="I20">
         <f>_xlfn.FORECAST.LINEAR(1000000,C2:C14,A2:A14)</f>
         <v>662.95214577482352</v>
       </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>2E-3</v>
-      </c>
-      <c r="O18">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-      <c r="N19">
-        <v>2E-3</v>
-      </c>
-      <c r="O19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M20">
         <v>17</v>
       </c>
@@ -2043,12 +3192,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>37.037999999999997</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
       </c>
       <c r="M21">
         <v>18</v>
@@ -2060,7 +3215,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M22">
         <v>19</v>
       </c>
@@ -2071,7 +3232,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
       <c r="M23">
         <v>20</v>
       </c>
@@ -2082,7 +3249,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>21</v>
       </c>
@@ -2093,7 +3260,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>22</v>
       </c>
@@ -2104,7 +3271,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M26">
         <v>23</v>
       </c>
@@ -2115,7 +3282,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>24</v>
       </c>
@@ -2126,7 +3293,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>25</v>
       </c>
@@ -2137,7 +3304,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>26</v>
       </c>
@@ -2148,7 +3315,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>27</v>
       </c>
@@ -2159,7 +3326,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>28</v>
       </c>
@@ -2170,7 +3337,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>29</v>
       </c>

--- a/projects/project2/WorkingNotes.xlsx
+++ b/projects/project2/WorkingNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Repositories\cs251\projects\project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Repositories\cs251\projects\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -169,6 +169,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -339,7 +340,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3D27-4DE8-B7AB-9D36066820FB}"/>
             </c:ext>
@@ -480,7 +481,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3D27-4DE8-B7AB-9D36066820FB}"/>
             </c:ext>
@@ -496,11 +497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1760993295"/>
-        <c:axId val="1760998287"/>
+        <c:axId val="180826864"/>
+        <c:axId val="180827424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1760993295"/>
+        <c:axId val="180826864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,6 +533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -598,7 +600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760998287"/>
+        <c:crossAx val="180827424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -606,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1760998287"/>
+        <c:axId val="180827424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,6 +654,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -712,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760993295"/>
+        <c:crossAx val="180826864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -726,6 +729,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -793,7 +797,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1049,7 +1053,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F29-4D24-BB0C-D5D25517354D}"/>
             </c:ext>
@@ -1065,11 +1069,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="359082799"/>
-        <c:axId val="359091951"/>
+        <c:axId val="634197744"/>
+        <c:axId val="634198304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="359082799"/>
+        <c:axId val="634197744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,6 +1105,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1167,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359091951"/>
+        <c:crossAx val="634198304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1175,7 +1180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359091951"/>
+        <c:axId val="634198304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,6 +1226,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1281,7 +1287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359082799"/>
+        <c:crossAx val="634197744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2780,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/project2/WorkingNotes.xlsx
+++ b/projects/project2/WorkingNotes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Repositories\cs251\projects\project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\everettr\Desktop\cs251-master\projects\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>N</t>
   </si>
@@ -65,18 +65,187 @@
     <t>624914 s</t>
   </si>
   <si>
-    <t>N^2 values</t>
-  </si>
-  <si>
-    <t>N^4 values</t>
+    <t>log(n)</t>
+  </si>
+  <si>
+    <t>log(Brute)</t>
+  </si>
+  <si>
+    <t>log(Fast)</t>
+  </si>
+  <si>
+    <t>Brute log regression</t>
+  </si>
+  <si>
+    <t>y = 4.528409489 ln(x) - 3.313432392</t>
+  </si>
+  <si>
+    <t>Fast log regression</t>
+  </si>
+  <si>
+    <t>y = 2.90786942 ln(x) - 2.440491734</t>
+  </si>
+  <si>
+    <t>a = 2^(-3.313432392)</t>
+  </si>
+  <si>
+    <t>a=0.1005906</t>
+  </si>
+  <si>
+    <t>T(N) = 0.1005906*N^(4.528409489)</t>
+  </si>
+  <si>
+    <t>1.4894 x 10^26</t>
+  </si>
+  <si>
+    <t>a=2^(-2.440491734)</t>
+  </si>
+  <si>
+    <t>a=0.184221</t>
+  </si>
+  <si>
+    <t>T(N) = 0.184221*N^(2.90786942)</t>
+  </si>
+  <si>
+    <t>5.1589 x 10^16</t>
+  </si>
+  <si>
+    <t>Brute</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Notation</t>
+  </si>
+  <si>
+    <t>Array Declaration</t>
+  </si>
+  <si>
+    <t>~N</t>
+  </si>
+  <si>
+    <t>Scan Points</t>
+  </si>
+  <si>
+    <t>N+1</t>
+  </si>
+  <si>
+    <t>Sort Array</t>
+  </si>
+  <si>
+    <t>nlog(n)</t>
+  </si>
+  <si>
+    <t>~Nlog(n)</t>
+  </si>
+  <si>
+    <t>Sort Array by coordinates</t>
+  </si>
+  <si>
+    <t>Collinear Check</t>
+  </si>
+  <si>
+    <t>(n-3)(n-2)(n-1)(n)</t>
+  </si>
+  <si>
+    <t>1/24 * N^4</t>
+  </si>
+  <si>
+    <t>Array Copy</t>
+  </si>
+  <si>
+    <t>n(n-3)</t>
+  </si>
+  <si>
+    <t>~N^2</t>
+  </si>
+  <si>
+    <t>Sort Array by Angle PASS1</t>
+  </si>
+  <si>
+    <t>(n-3) + nlog(n)</t>
+  </si>
+  <si>
+    <t>if n &gt;= 4</t>
+  </si>
+  <si>
+    <t>if n &lt; 4</t>
+  </si>
+  <si>
+    <t>Sort Array by Angle PASS2</t>
+  </si>
+  <si>
+    <t>n + nlog(n)</t>
+  </si>
+  <si>
+    <t>~1/24 * N^4</t>
+  </si>
+  <si>
+    <t>Check Collinear</t>
+  </si>
+  <si>
+    <r>
+      <t>n + i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(i&lt;n)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,10 +273,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,7 +296,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -169,7 +339,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -340,7 +509,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3D27-4DE8-B7AB-9D36066820FB}"/>
             </c:ext>
@@ -481,7 +650,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3D27-4DE8-B7AB-9D36066820FB}"/>
             </c:ext>
@@ -533,7 +702,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -654,7 +822,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -729,7 +896,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -797,7 +963,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1053,7 +1219,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F29-4D24-BB0C-D5D25517354D}"/>
             </c:ext>
@@ -1105,7 +1271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1226,7 +1391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1336,6 +1500,1199 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fast</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v Sample Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35793744531933508"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Brute</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.5625000000000023E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>679.19299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D98F-4540-864A-19612FE1313A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="634197744"/>
+        <c:axId val="634198304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="634197744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634198304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="634198304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634197744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fast</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v Sample Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35793744531933508"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fast</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.5625000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.037999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-364F-4A4A-81F9-A41FC389CA81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="634197744"/>
+        <c:axId val="634198304"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Fast</c:v>
+                </c:tx>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>3.5625000000000019E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.0999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.1000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.1000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.2999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.7000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.13500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.3999999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.192</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.185</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.67100000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.8540000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.5680000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.6150000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7.7460000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>11.9</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20.71</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>37.037999999999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-364F-4A4A-81F9-A41FC389CA81}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Fast</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>3.5625000000000019E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.0999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.1000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.1000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.2999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.7000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.13500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.3999999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.192</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.185</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.67100000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.8540000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.5680000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.6150000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7.7460000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>11.9</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20.71</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>37.037999999999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-364F-4A4A-81F9-A41FC389CA81}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="634197744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634198304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="634198304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634197744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2479,6 +3836,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2784,10 +4205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39:Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,12 +4229,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2836,6 +4251,15 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2856,6 +4280,21 @@
       <c r="O3">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="P3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <f>LOG(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>LOG(B2)</f>
+        <v>-2.2547299760110118</v>
+      </c>
+      <c r="S3">
+        <f>LOG(C2)</f>
+        <v>-2.4482451269834331</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2876,6 +4315,21 @@
       <c r="O4">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="P4" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q22" si="0">LOG(A3)</f>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R15" si="1">LOG(B3)</f>
+        <v>-1.9208187539523751</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S22" si="2">LOG(C3)</f>
+        <v>-2.1549019599857431</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2896,6 +4350,21 @@
       <c r="O5">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="P5" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>-1.744727494896694</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>-1.9586073148417751</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2916,6 +4385,21 @@
       <c r="O6">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="P6" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>-1.6197887582883939</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>-1.8860566476931633</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2936,6 +4420,21 @@
       <c r="O7">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="P7" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>-1.6777807052660807</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2956,6 +4455,21 @@
       <c r="O8">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="P8" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>-0.75202673363819339</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>-1.3872161432802645</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2976,6 +4490,21 @@
       <c r="O9">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="P9" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>2.1760912590556813</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>-0.11013827874181155</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>-1.3665315444204136</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2996,6 +4525,21 @@
       <c r="O10">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="P10" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0.35640832703898123</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>-1.1739251972991736</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3016,6 +4560,21 @@
       <c r="O11">
         <v>2E-3</v>
       </c>
+      <c r="P11" s="1">
+        <v>250</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>2.3979400086720375</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0.56098205558623537</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>-0.86966623150499389</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3036,6 +4595,21 @@
       <c r="O12">
         <v>1.2E-2</v>
       </c>
+      <c r="P12" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0.84079589884709383</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>-1.1307682802690238</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3056,6 +4630,21 @@
       <c r="O13">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="P13" s="1">
+        <v>350</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>2.5440680443502757</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>1.1114641515866539</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>-0.71669877129645043</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3076,6 +4665,21 @@
       <c r="O14">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="P14" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>1.3018110230174766</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>-0.73282827159698616</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3093,6 +4697,21 @@
       <c r="O15">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="P15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>2.8319932012685238</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>-0.17327747983100789</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3110,8 +4729,19 @@
       <c r="O16">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="P16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>0.2681097298084783</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -3127,8 +4757,19 @@
       <c r="O17">
         <v>2E-3</v>
       </c>
+      <c r="P17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>0.4095950193968157</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5000</v>
       </c>
@@ -3147,8 +4788,19 @@
       <c r="O18">
         <v>2E-3</v>
       </c>
+      <c r="P18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>0.66417170536193093</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6000</v>
       </c>
@@ -3172,8 +4824,19 @@
       <c r="O19">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="P19" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>0.88907749265006397</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8000</v>
       </c>
@@ -3197,8 +4860,19 @@
       <c r="O20">
         <v>2E-3</v>
       </c>
+      <c r="P20" s="1">
+        <v>6000</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>1.0755469613925308</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10000</v>
       </c>
@@ -3220,8 +4894,19 @@
       <c r="O21">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="P21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>3.9030899869919438</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>1.3161800988934527</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>11</v>
       </c>
@@ -3237,8 +4922,19 @@
       <c r="O22">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="P22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>1.5686475273507532</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>12</v>
       </c>
@@ -3255,7 +4951,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>21</v>
       </c>
@@ -3266,7 +4962,10 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
       <c r="M25">
         <v>22</v>
       </c>
@@ -3277,7 +4976,10 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M26">
         <v>23</v>
       </c>
@@ -3288,7 +4990,10 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
       <c r="M27">
         <v>24</v>
       </c>
@@ -3299,7 +5004,10 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
       <c r="M28">
         <v>25</v>
       </c>
@@ -3310,7 +5018,10 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
       <c r="M29">
         <v>26</v>
       </c>
@@ -3321,7 +5032,10 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
       <c r="M30">
         <v>27</v>
       </c>
@@ -3332,7 +5046,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
       <c r="M31">
         <v>28</v>
       </c>
@@ -3343,7 +5060,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="M32">
         <v>29</v>
       </c>
@@ -3354,7 +5074,10 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
       <c r="M33">
         <v>30</v>
       </c>
@@ -3365,7 +5088,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
       <c r="M34">
         <v>31</v>
       </c>
@@ -3376,7 +5102,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
       <c r="N35">
         <f>AVERAGE(N3:N34)</f>
         <v>3.5625000000000019E-3</v>
@@ -3384,6 +5113,164 @@
       <c r="O35">
         <f>AVERAGE(O3:O34)</f>
         <v>5.5625000000000023E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>28</v>
+      </c>
+      <c r="X39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" t="s">
+        <v>31</v>
+      </c>
+      <c r="X40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>36</v>
+      </c>
+      <c r="X41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42" t="s">
+        <v>36</v>
+      </c>
+      <c r="X42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" t="s">
+        <v>44</v>
+      </c>
+      <c r="T44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X44" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="X45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" t="s">
+        <v>52</v>
+      </c>
+      <c r="X46" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
